--- a/example_data/EPA/label_corrected/059639-00152-20160104_2018-12-08_125322.xlsx
+++ b/example_data/EPA/label_corrected/059639-00152-20160104_2018-12-08_125322.xlsx
@@ -742,7 +742,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G326" t="inlineStr"/>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G343" t="inlineStr"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G351" t="inlineStr"/>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G355" t="inlineStr"/>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G366" t="inlineStr"/>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G374" t="inlineStr"/>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G383" t="inlineStr"/>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G384" t="inlineStr"/>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G399" t="inlineStr"/>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G401" t="inlineStr"/>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G402" t="inlineStr"/>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G404" t="inlineStr"/>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G406" t="inlineStr"/>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G407" t="inlineStr"/>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G431" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G432" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G434" t="inlineStr"/>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G435" t="inlineStr"/>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G437" t="inlineStr"/>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G438" t="inlineStr"/>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G439" t="inlineStr"/>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G440" t="inlineStr"/>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G441" t="inlineStr"/>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G442" t="inlineStr"/>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G443" t="inlineStr"/>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G444" t="inlineStr"/>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G445" t="inlineStr"/>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G446" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G447" t="inlineStr"/>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G466" t="inlineStr"/>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G472" t="inlineStr"/>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G478" t="inlineStr"/>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G501" t="inlineStr"/>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G502" t="inlineStr"/>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G512" t="inlineStr"/>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G522" t="inlineStr"/>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G557" t="inlineStr"/>
@@ -16184,7 +16184,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G560" t="inlineStr"/>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G574" t="inlineStr"/>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G584" t="inlineStr"/>
@@ -17307,7 +17307,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G598" t="inlineStr"/>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G600" t="inlineStr"/>
